--- a/biology/Zoologie/Gazelle_de_Sömmering/Gazelle_de_Sömmering.xlsx
+++ b/biology/Zoologie/Gazelle_de_Sömmering/Gazelle_de_Sömmering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gazelle_de_S%C3%B6mmering</t>
+          <t>Gazelle_de_Sömmering</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nanger soemmerringii
-La gazelle de Sömmering[3] (Nanger soemmerringi) est une espèce de mammifères artiodactyles de la famille des Bovidés.
+La gazelle de Sömmering (Nanger soemmerringi) est une espèce de mammifères artiodactyles de la famille des Bovidés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gazelle_de_S%C3%B6mmering</t>
+          <t>Gazelle_de_Sömmering</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cornes des mâles sont lyrées, et leurs pointes convergentes ou divergentes. Les cornes comptent 15 à 22 anneaux élevés avec une forte variation de formes. Les femelles ont des cornes plus fines et plus petites. Ses gazelles mesurent de 76 cm pour les femelles à 93 cm pour les mâles en hauteur à l'épaule. A l'âge adulte, leurs poids varient de 30 à 60 kg.
 Elles ont tendance à être moins grosse que les gazelles de grant a la maturité. Elle va jusqu'à 60 kg maximum soit 30 kg de moins que la gazelle de Grant pour une taille en hauteur similaire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gazelle_de_S%C3%B6mmering</t>
+          <t>Gazelle_de_Sömmering</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (23 septembre 2017)[4] et ITIS      (23 septembre 2017)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (23 septembre 2017) et ITIS      (23 septembre 2017) :
 sous-espèce Nanger soemmerringii berberana (Matschie, 1893)
 sous-espèce Nanger soemmerringii butteri (Thomas, 1904)
 sous-espèce Nanger soemmerringii soemmerringii (Cretzschmar, 1828)</t>
